--- a/pred_ohlcv/54_21/2020-01-19 XEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 XEM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1024.165502299984</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>54941.46823343002</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -600,7 +600,7 @@
         <v>47846.02733343001</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>38646.02733343001</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>9970.732133430014</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>22464.87113343001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>44894.13113343001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>34591.87213343001</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>45505.09303343001</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>14945.45853343001</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>14878.70643343001</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>14087.80003343001</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>14737.95401923001</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>20102.53921923001</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>24687.97481923001</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>33444.23331923001</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-55161.30878076998</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>51952.72551923002</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>51952.72551923002</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>51952.72551923002</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>20352.72551923002</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-4874.182234699978</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-287236.28497523</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-288117.28487523</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-273958.44564908</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-347441.23816501</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-371039.70096501</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-370939.40757752</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-371439.40757752</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-371352.79397752</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-372387.21267752</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-371809.43827752</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-371809.43827752</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-365125.57567752</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-365927.78947752</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-365927.78947752</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-334609.3336270201</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-335210.6146270201</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-334993.0542270201</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-335754.2892270201</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-332578.2892270201</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-360827.05382702</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-359810.0038270201</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-380476.16282702</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-380406.17462702</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-440424.51862702</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-439043.78712702</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-453353.0687616901</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-446924.4574616901</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-446809.5737616901</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-449302.20786169</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-19 XEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 XEM ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>54941.46823343002</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>54351.78723343002</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>39308.85143343002</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>50009.30833343002</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>47846.02733343001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>38646.02733343001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -756,7 +756,7 @@
         <v>44894.13113343001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>34591.87213343001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>45505.09303343001</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>14878.70643343001</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>14087.80003343001</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>14737.95401923001</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>20102.53921923001</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>24687.97481923001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>24614.37131923001</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>33444.23331923001</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-55161.30878076998</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>51952.72551923002</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>51952.72551923002</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>51952.72551923002</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>20352.72551923002</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-2330.342234699978</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-4874.182234699978</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-4702.882675229978</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>14697.11732477002</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-22098.35827522998</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-22053.35827522998</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-22083.35827522998</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-22083.35827522998</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-22083.35827522998</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-22083.35827522998</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-22253.57037522998</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-82960.28317522998</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-254614.81497523</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-287236.28497523</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-288117.28487523</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-273958.44564908</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-210826.68244908</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-210784.68244908</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-211393.44744908</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-221479.99804908</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-347441.23816501</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-371401.27106501</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-371039.70096501</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-372387.21267752</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-371809.43827752</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-371809.43827752</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-365125.57567752</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-365927.78947752</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-365927.78947752</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-334609.3336270201</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-335210.6146270201</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-334993.0542270201</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-335754.2892270201</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-332578.2892270201</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-360827.05382702</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-359810.0038270201</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-380476.16282702</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-380406.17462702</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-378405.00892702</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-378405.00892702</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-377184.51732702</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-453053.0687616901</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-453353.0687616901</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-453353.0687616901</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-453353.0687616901</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-446924.4574616901</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-446809.5737616901</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-451618.5087616901</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-451618.5087616901</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-451435.2907616901</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-451406.2907616901</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-451419.30856169</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-449419.30856169</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-451132.20786169</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-450302.20786169</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-449302.20786169</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
